--- a/vintage.xlsx
+++ b/vintage.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="503">
   <si>
     <t>Treinamento</t>
   </si>
@@ -5138,1005 +5138,1608 @@
       <c r="A1" s="1" t="s">
         <v>302</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
         <v>303</v>
       </c>
+      <c r="B2" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
         <v>304</v>
       </c>
+      <c r="B3" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
         <v>305</v>
       </c>
+      <c r="B4" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
         <v>306</v>
       </c>
+      <c r="B5" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
         <v>307</v>
       </c>
+      <c r="B6" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
         <v>308</v>
       </c>
+      <c r="B7" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
         <v>309</v>
       </c>
+      <c r="B8" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
         <v>310</v>
       </c>
+      <c r="B9" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
         <v>311</v>
       </c>
+      <c r="B10" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
         <v>312</v>
       </c>
+      <c r="B11" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
         <v>313</v>
       </c>
+      <c r="B12" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
         <v>314</v>
       </c>
+      <c r="B13" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
         <v>315</v>
       </c>
+      <c r="B14" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
         <v>316</v>
       </c>
+      <c r="B15" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
         <v>317</v>
       </c>
+      <c r="B16" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
         <v>318</v>
       </c>
+      <c r="B17" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
         <v>319</v>
       </c>
+      <c r="B18" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
         <v>320</v>
       </c>
+      <c r="B19" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
         <v>321</v>
       </c>
+      <c r="B20" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>322</v>
       </c>
+      <c r="B21" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>323</v>
       </c>
+      <c r="B22" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>324</v>
       </c>
+      <c r="B23" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>325</v>
       </c>
+      <c r="B24" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>326</v>
       </c>
+      <c r="B25" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>327</v>
       </c>
+      <c r="B26" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>328</v>
       </c>
+      <c r="B27" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>329</v>
       </c>
+      <c r="B28" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>330</v>
       </c>
+      <c r="B29" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>331</v>
       </c>
+      <c r="B30" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>332</v>
       </c>
+      <c r="B31" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>333</v>
       </c>
+      <c r="B32" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>334</v>
       </c>
+      <c r="B33" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>335</v>
       </c>
+      <c r="B34" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>336</v>
       </c>
+      <c r="B35" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>337</v>
       </c>
+      <c r="B36" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>338</v>
       </c>
+      <c r="B37" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>339</v>
       </c>
+      <c r="B38" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>340</v>
       </c>
+      <c r="B39" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>341</v>
       </c>
+      <c r="B40" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>342</v>
       </c>
+      <c r="B41" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>343</v>
       </c>
+      <c r="B42" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>344</v>
       </c>
+      <c r="B43" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>345</v>
       </c>
+      <c r="B44" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>346</v>
       </c>
+      <c r="B45" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>347</v>
       </c>
+      <c r="B46" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>348</v>
       </c>
+      <c r="B47" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>349</v>
       </c>
+      <c r="B48" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>350</v>
       </c>
+      <c r="B49" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>351</v>
       </c>
+      <c r="B50" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>352</v>
       </c>
+      <c r="B51" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>353</v>
       </c>
+      <c r="B52" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>354</v>
       </c>
+      <c r="B53" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>355</v>
       </c>
+      <c r="B54" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>356</v>
       </c>
+      <c r="B55" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>357</v>
       </c>
+      <c r="B56" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>358</v>
       </c>
+      <c r="B57" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>359</v>
       </c>
+      <c r="B58" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>360</v>
       </c>
+      <c r="B59" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>361</v>
       </c>
+      <c r="B60" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>362</v>
       </c>
+      <c r="B61" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>363</v>
       </c>
+      <c r="B62" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>364</v>
       </c>
+      <c r="B63" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>365</v>
       </c>
+      <c r="B64" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>366</v>
       </c>
+      <c r="B65" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>367</v>
       </c>
+      <c r="B66" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>368</v>
       </c>
+      <c r="B67" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>369</v>
       </c>
+      <c r="B68" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>370</v>
       </c>
+      <c r="B69" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>371</v>
       </c>
+      <c r="B70" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>372</v>
       </c>
+      <c r="B71" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>373</v>
       </c>
+      <c r="B72" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>374</v>
       </c>
+      <c r="B73" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="B74" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>376</v>
       </c>
+      <c r="B75" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>377</v>
       </c>
+      <c r="B76" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>378</v>
       </c>
+      <c r="B77" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>379</v>
       </c>
+      <c r="B78" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>380</v>
       </c>
+      <c r="B79" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>381</v>
       </c>
+      <c r="B80" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>382</v>
       </c>
+      <c r="B81" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>383</v>
       </c>
+      <c r="B82" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="3" t="s">
         <v>384</v>
       </c>
+      <c r="B83" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>385</v>
       </c>
+      <c r="B84" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>386</v>
       </c>
+      <c r="B85" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>387</v>
       </c>
+      <c r="B86" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>388</v>
       </c>
+      <c r="B87" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>389</v>
       </c>
+      <c r="B88" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>390</v>
       </c>
+      <c r="B89" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>391</v>
       </c>
+      <c r="B90" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>392</v>
       </c>
+      <c r="B91" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>393</v>
       </c>
+      <c r="B92" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>394</v>
       </c>
+      <c r="B93" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>395</v>
       </c>
+      <c r="B94" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>396</v>
       </c>
+      <c r="B95" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>397</v>
       </c>
+      <c r="B96" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>398</v>
       </c>
+      <c r="B97" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>399</v>
       </c>
+      <c r="B98" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>400</v>
       </c>
+      <c r="B99" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>401</v>
       </c>
+      <c r="B100" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>402</v>
       </c>
+      <c r="B101" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>403</v>
       </c>
+      <c r="B102" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>404</v>
       </c>
+      <c r="B103" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>405</v>
       </c>
+      <c r="B104" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>406</v>
       </c>
+      <c r="B105" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>407</v>
       </c>
+      <c r="B106" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>408</v>
       </c>
+      <c r="B107" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>409</v>
       </c>
+      <c r="B108" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>410</v>
       </c>
+      <c r="B109" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>411</v>
       </c>
+      <c r="B110" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="3" t="s">
         <v>412</v>
       </c>
+      <c r="B111" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>413</v>
       </c>
+      <c r="B112" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>414</v>
       </c>
+      <c r="B113" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>415</v>
       </c>
+      <c r="B114" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="3" t="s">
         <v>416</v>
       </c>
+      <c r="B115" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="3" t="s">
         <v>417</v>
       </c>
+      <c r="B116" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="3" t="s">
         <v>418</v>
       </c>
+      <c r="B117" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="3" t="s">
         <v>419</v>
       </c>
+      <c r="B118" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="3" t="s">
         <v>420</v>
       </c>
+      <c r="B119" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="3" t="s">
         <v>421</v>
       </c>
+      <c r="B120" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="B121" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="3" t="s">
         <v>423</v>
       </c>
+      <c r="B122" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="3" t="s">
         <v>424</v>
       </c>
+      <c r="B123" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="3" t="s">
         <v>425</v>
       </c>
+      <c r="B124" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="3" t="s">
         <v>426</v>
       </c>
+      <c r="B125" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="3" t="s">
         <v>427</v>
       </c>
+      <c r="B126" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="3" t="s">
         <v>428</v>
       </c>
+      <c r="B127" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="3" t="s">
         <v>429</v>
       </c>
+      <c r="B128" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="3" t="s">
         <v>430</v>
       </c>
+      <c r="B129" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="3" t="s">
         <v>431</v>
       </c>
+      <c r="B130" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="3" t="s">
         <v>432</v>
       </c>
+      <c r="B131" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="3" t="s">
         <v>433</v>
       </c>
+      <c r="B132" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="3" t="s">
         <v>434</v>
       </c>
+      <c r="B133" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="3" t="s">
         <v>435</v>
       </c>
+      <c r="B134" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="3" t="s">
         <v>436</v>
       </c>
+      <c r="B135" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="3" t="s">
         <v>437</v>
       </c>
+      <c r="B136" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="3" t="s">
         <v>438</v>
       </c>
+      <c r="B137" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="3" t="s">
         <v>439</v>
       </c>
+      <c r="B138" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="3" t="s">
         <v>440</v>
       </c>
+      <c r="B139" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="3" t="s">
         <v>441</v>
       </c>
+      <c r="B140" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="3" t="s">
         <v>442</v>
       </c>
+      <c r="B141" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="3" t="s">
         <v>443</v>
       </c>
+      <c r="B142" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="3" t="s">
         <v>444</v>
       </c>
+      <c r="B143" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="3" t="s">
         <v>445</v>
       </c>
+      <c r="B144" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="3" t="s">
         <v>446</v>
       </c>
+      <c r="B145" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="3" t="s">
         <v>447</v>
       </c>
+      <c r="B146" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="3" t="s">
         <v>448</v>
       </c>
+      <c r="B147" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="3" t="s">
         <v>449</v>
       </c>
+      <c r="B148" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="3" t="s">
         <v>450</v>
       </c>
+      <c r="B149" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="3" t="s">
         <v>451</v>
       </c>
+      <c r="B150" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="3" t="s">
         <v>452</v>
       </c>
+      <c r="B151" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="3" t="s">
         <v>453</v>
       </c>
+      <c r="B152" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="3" t="s">
         <v>454</v>
       </c>
+      <c r="B153" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="3" t="s">
         <v>455</v>
       </c>
+      <c r="B154" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="3" t="s">
         <v>456</v>
       </c>
+      <c r="B155" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="3" t="s">
         <v>457</v>
       </c>
+      <c r="B156" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="3" t="s">
         <v>458</v>
       </c>
+      <c r="B157" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="3" t="s">
         <v>459</v>
       </c>
+      <c r="B158" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="3" t="s">
         <v>460</v>
       </c>
+      <c r="B159" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="3" t="s">
         <v>461</v>
       </c>
+      <c r="B160" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="3" t="s">
         <v>462</v>
       </c>
+      <c r="B161" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="3" t="s">
         <v>463</v>
       </c>
+      <c r="B162" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="3" t="s">
         <v>464</v>
       </c>
+      <c r="B163" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="3" t="s">
         <v>465</v>
       </c>
+      <c r="B164" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="3" t="s">
         <v>466</v>
       </c>
+      <c r="B165" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="3" t="s">
         <v>467</v>
       </c>
+      <c r="B166" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="3" t="s">
         <v>468</v>
       </c>
+      <c r="B167" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="3" t="s">
         <v>469</v>
       </c>
+      <c r="B168" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="3" t="s">
         <v>470</v>
       </c>
+      <c r="B169" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="3" t="s">
         <v>471</v>
       </c>
+      <c r="B170" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="3" t="s">
         <v>472</v>
       </c>
+      <c r="B171" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="3" t="s">
         <v>473</v>
       </c>
+      <c r="B172" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="3" t="s">
         <v>474</v>
       </c>
+      <c r="B173" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="3" t="s">
         <v>475</v>
       </c>
+      <c r="B174" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="3" t="s">
         <v>476</v>
       </c>
+      <c r="B175" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="3" t="s">
         <v>477</v>
       </c>
+      <c r="B176" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="3" t="s">
         <v>478</v>
       </c>
+      <c r="B177" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="3" t="s">
         <v>479</v>
       </c>
+      <c r="B178" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="3" t="s">
         <v>480</v>
       </c>
+      <c r="B179" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="3" t="s">
         <v>481</v>
       </c>
+      <c r="B180" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="3" t="s">
         <v>482</v>
       </c>
+      <c r="B181" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="3" t="s">
         <v>483</v>
       </c>
+      <c r="B182" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="3" t="s">
         <v>484</v>
       </c>
+      <c r="B183" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="3" t="s">
         <v>485</v>
       </c>
+      <c r="B184" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="3" t="s">
         <v>486</v>
       </c>
+      <c r="B185" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="3" t="s">
         <v>487</v>
       </c>
+      <c r="B186" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="3" t="s">
         <v>488</v>
       </c>
+      <c r="B187" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="3" t="s">
         <v>489</v>
       </c>
+      <c r="B188" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="3" t="s">
         <v>490</v>
       </c>
+      <c r="B189" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="3" t="s">
         <v>491</v>
       </c>
+      <c r="B190" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="3" t="s">
         <v>492</v>
       </c>
+      <c r="B191" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="3" t="s">
         <v>493</v>
       </c>
+      <c r="B192" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="3" t="s">
         <v>494</v>
       </c>
+      <c r="B193" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="3" t="s">
         <v>495</v>
       </c>
+      <c r="B194" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="B195" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="3" t="s">
         <v>497</v>
       </c>
+      <c r="B196" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="3" t="s">
         <v>498</v>
       </c>
+      <c r="B197" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="3" t="s">
         <v>499</v>
       </c>
+      <c r="B198" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="3" t="s">
         <v>500</v>
       </c>
+      <c r="B199" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="3" t="s">
         <v>501</v>
       </c>
+      <c r="B200" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="3" t="s">
         <v>502</v>
+      </c>
+      <c r="B201" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1"/>
